--- a/medicine/Psychotrope/Brasserie_de_la_Lienne/Brasserie_de_la_Lienne.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_la_Lienne/Brasserie_de_la_Lienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie de la Lienne est une micro-brasserie belge située dans le hameau de Reharmont faisant partie de la commune de Lierneux située au sud de la province de Liège non loin de la commune des Trois-Ponts. Elle produit quatre bières artisanales dont trois s'appellent Lienne.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Titulaire d'un master en biologie des organismes et écologie à l'Université de Liège, Mélissa Résimont suit a posteriori des cours de formation de micro-brasseur.
 En association avec son frère Nicolas, ils achètent, rénovent et aménagent une micro-brasserie dans une ancienne fermette en moellons de grès située dans le hameau ardennais de Reharmont. La brasserie prend le nom de la Lienne, un cours d'eau de la région, affluent de l'Amblève. Le premier brassin de Lienne (blonde) est réalisé au printemps 2013.
@@ -544,9 +558,11 @@
           <t>Étiquettes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les étiquettes représentent une chèvre s'inspirant de la légende locale de la Fée de la Lienne et de la Chèvre d'Or[1]. Sous le nom de la bière, quelques ondulations représentent les flots de la Lienne.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les étiquettes représentent une chèvre s'inspirant de la légende locale de la Fée de la Lienne et de la Chèvre d'Or. Sous le nom de la bière, quelques ondulations représentent les flots de la Lienne.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie de la Lienne produit quatre bières artisanales commercialisées en bouteilles de 33 cl.
 Lienne : une bière blonde cuivrée titrant 7 % d'alcool brassée avec deux malts clairs légèrement torréfiés.
